--- a/cypress/fixtures/CRISPDuesIn_Deactivate.xlsx
+++ b/cypress/fixtures/CRISPDuesIn_Deactivate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joero\Documents\GitHub\cypress-cucumber-example\cypress\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C91EE6BC-5169-46D1-8B51-015855D49477}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28813FB2-6A13-47B0-AEE0-25EA752E6610}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5820" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -157,12 +157,6 @@
     <t>0</t>
   </si>
   <si>
-    <t>A123</t>
-  </si>
-  <si>
-    <t>A123 200017758</t>
-  </si>
-  <si>
     <t>123456</t>
   </si>
   <si>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>12/10/2020</t>
+  </si>
+  <si>
+    <t>W333</t>
+  </si>
+  <si>
+    <t>W333 200017758</t>
   </si>
 </sst>
 </file>
@@ -573,7 +573,7 @@
   <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,10 +673,10 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="D2" s="6">
         <v>96709435</v>
@@ -685,10 +685,10 @@
         <v>29</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>27</v>
@@ -714,10 +714,10 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" s="6">
         <v>96709435</v>
@@ -726,31 +726,31 @@
         <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>27</v>
       </c>
       <c r="N3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="W3" s="6" t="s">
         <v>30</v>
       </c>
       <c r="X3" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Y3" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
